--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2632.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2632.xlsx
@@ -354,7 +354,7 @@
         <v>1.550043211831096</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.643860844375541</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2632.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2632.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7940766435304302</v>
+        <v>1.236034750938416</v>
       </c>
       <c r="B1">
-        <v>1.550043211831096</v>
+        <v>2.32744288444519</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.320801019668579</v>
       </c>
       <c r="D1">
-        <v>1.643860844375541</v>
+        <v>2.079475402832031</v>
       </c>
       <c r="E1">
-        <v>0.8877964540807982</v>
+        <v>1.380895733833313</v>
       </c>
     </row>
   </sheetData>
